--- a/public/template_report/payment_template_2.xlsx
+++ b/public/template_report/payment_template_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="13940"/>
+    <workbookView windowWidth="28800" windowHeight="13340"/>
   </bookViews>
   <sheets>
     <sheet name="Bill" sheetId="5" r:id="rId1"/>
@@ -102,7 +102,7 @@
     <t>VAT 11%</t>
   </si>
   <si>
-    <t>VAT 12%</t>
+    <t>VAT 2%</t>
   </si>
   <si>
     <t>Terbilang :</t>
@@ -145,17 +145,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="[$-13809]dd/mm/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="[$-13809]dd/mm/yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,13 +268,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -283,21 +276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -306,6 +284,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -314,6 +299,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -323,7 +316,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,24 +359,16 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,16 +382,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,35 +398,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -433,6 +411,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -449,13 +442,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,31 +580,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,127 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,15 +761,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -797,6 +781,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -804,6 +812,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,359 +839,335 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="60">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="59">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="59" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="60" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="59" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="60" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="5" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyBorder="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1191,7 +1184,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="33" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1">
@@ -1200,64 +1193,64 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Phone" xfId="1"/>
-    <cellStyle name="Note 2" xfId="2"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Currency [0] 2" xfId="1"/>
+    <cellStyle name="Heading 1 2" xfId="2"/>
+    <cellStyle name="Heading 2 2" xfId="3"/>
     <cellStyle name="Name" xfId="4"/>
-    <cellStyle name="Heading 2 2" xfId="5"/>
-    <cellStyle name="Heading 1 2" xfId="6"/>
-    <cellStyle name="Currency [0] 2" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="5"/>
+    <cellStyle name="Note 2" xfId="6"/>
+    <cellStyle name="Phone" xfId="7"/>
     <cellStyle name="60% - Accent6" xfId="8" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="9" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="10" builtinId="48"/>
@@ -1309,8 +1302,8 @@
     <cellStyle name="Check Cell" xfId="56" builtinId="23"/>
     <cellStyle name="60% - Accent3" xfId="57" builtinId="40"/>
     <cellStyle name="Percent" xfId="58" builtinId="5"/>
-    <cellStyle name="Heading 3 2" xfId="59"/>
-    <cellStyle name="Explanatory Text 2" xfId="60"/>
+    <cellStyle name="Explanatory Text 2" xfId="59"/>
+    <cellStyle name="Heading 3 2" xfId="60"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1667,7 +1660,7 @@
   <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22:N23"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="14"/>
